--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H2">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I2">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J2">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.96454710372563</v>
+        <v>3.152962</v>
       </c>
       <c r="N2">
-        <v>2.96454710372563</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O2">
-        <v>0.1255664292712438</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P2">
-        <v>0.1255664292712438</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q2">
-        <v>5.145040904108181</v>
+        <v>5.518432328475001</v>
       </c>
       <c r="R2">
-        <v>5.145040904108181</v>
+        <v>22.0737293139</v>
       </c>
       <c r="S2">
-        <v>0.009634092190243478</v>
+        <v>0.00755163365652235</v>
       </c>
       <c r="T2">
-        <v>0.009634092190243478</v>
+        <v>0.005295602524181043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H3">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I3">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J3">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.32523025636085</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N3">
-        <v>8.32523025636085</v>
+        <v>26.240334</v>
       </c>
       <c r="O3">
-        <v>0.3526236553429724</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P3">
-        <v>0.3526236553429724</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q3">
-        <v>14.4486320191254</v>
+        <v>15.308938859775</v>
       </c>
       <c r="R3">
-        <v>14.4486320191254</v>
+        <v>91.85363315865</v>
       </c>
       <c r="S3">
-        <v>0.02705507215385028</v>
+        <v>0.02094933688732349</v>
       </c>
       <c r="T3">
-        <v>0.02705507215385028</v>
+        <v>0.02203616455982559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H4">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I4">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J4">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.69796761232365</v>
+        <v>1.188721</v>
       </c>
       <c r="N4">
-        <v>0.69796761232365</v>
+        <v>3.566163</v>
       </c>
       <c r="O4">
-        <v>0.02956313317346694</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P4">
-        <v>0.02956313317346694</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q4">
-        <v>1.211339131914922</v>
+        <v>2.0805440712375</v>
       </c>
       <c r="R4">
-        <v>1.211339131914922</v>
+        <v>12.483264427425</v>
       </c>
       <c r="S4">
-        <v>0.00226823325373362</v>
+        <v>0.002847096004269922</v>
       </c>
       <c r="T4">
-        <v>0.00226823325373362</v>
+        <v>0.002994800093442458</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H5">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I5">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J5">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.716867645186256</v>
+        <v>0.700844</v>
       </c>
       <c r="N5">
-        <v>0.716867645186256</v>
+        <v>2.102532</v>
       </c>
       <c r="O5">
-        <v>0.03036366342535065</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P5">
-        <v>0.03036366342535065</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q5">
-        <v>1.244140581433093</v>
+        <v>1.22664345045</v>
       </c>
       <c r="R5">
-        <v>1.244140581433093</v>
+        <v>7.3598607027</v>
       </c>
       <c r="S5">
-        <v>0.00232965398770278</v>
+        <v>0.001678585767405934</v>
       </c>
       <c r="T5">
-        <v>0.00232965398770278</v>
+        <v>0.001765668879988312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H6">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I6">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J6">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9047798046547</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N6">
-        <v>10.9047798046547</v>
+        <v>2.258587</v>
       </c>
       <c r="O6">
-        <v>0.4618831187869663</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P6">
-        <v>0.4618831187869663</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q6">
-        <v>18.92550065226889</v>
+        <v>1.3176878881375</v>
       </c>
       <c r="R6">
-        <v>18.92550065226889</v>
+        <v>7.906127328825001</v>
       </c>
       <c r="S6">
-        <v>0.03543801136447444</v>
+        <v>0.00180317445472795</v>
       </c>
       <c r="T6">
-        <v>0.03543801136447444</v>
+        <v>0.001896721086121953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.7587998447834</v>
+        <v>1.7502375</v>
       </c>
       <c r="H7">
-        <v>2.7587998447834</v>
+        <v>3.500475</v>
       </c>
       <c r="I7">
-        <v>0.1219626830210029</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J7">
-        <v>0.1219626830210029</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.96454710372563</v>
+        <v>10.911117</v>
       </c>
       <c r="N7">
-        <v>2.96454710372563</v>
+        <v>21.822234</v>
       </c>
       <c r="O7">
-        <v>0.1255664292712438</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P7">
-        <v>0.1255664292712438</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q7">
-        <v>8.178592089611346</v>
+        <v>19.0970461402875</v>
       </c>
       <c r="R7">
-        <v>8.178592089611346</v>
+        <v>76.38818456115</v>
       </c>
       <c r="S7">
-        <v>0.01531441861128788</v>
+        <v>0.0261331276328269</v>
       </c>
       <c r="T7">
-        <v>0.01531441861128788</v>
+        <v>0.01832592296603469</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H8">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J8">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.32523025636085</v>
+        <v>3.152962</v>
       </c>
       <c r="N8">
-        <v>8.32523025636085</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O8">
-        <v>0.3526236553429724</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P8">
-        <v>0.3526236553429724</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q8">
-        <v>22.96764393903438</v>
+        <v>10.084156200144</v>
       </c>
       <c r="R8">
-        <v>22.96764393903438</v>
+        <v>60.50493720086401</v>
       </c>
       <c r="S8">
-        <v>0.04300692710230231</v>
+        <v>0.0137995446579446</v>
       </c>
       <c r="T8">
-        <v>0.04300692710230231</v>
+        <v>0.01451544927501427</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H9">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J9">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.69796761232365</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N9">
-        <v>0.69796761232365</v>
+        <v>26.240334</v>
       </c>
       <c r="O9">
-        <v>0.02956313317346694</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P9">
-        <v>0.02956313317346694</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q9">
-        <v>1.925552940542326</v>
+        <v>27.974925038736</v>
       </c>
       <c r="R9">
-        <v>1.925552940542326</v>
+        <v>251.774325348624</v>
       </c>
       <c r="S9">
-        <v>0.003605599040343243</v>
+        <v>0.03828195633950784</v>
       </c>
       <c r="T9">
-        <v>0.003605599040343243</v>
+        <v>0.06040197077167949</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H10">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J10">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.716867645186256</v>
+        <v>1.188721</v>
       </c>
       <c r="N10">
-        <v>0.716867645186256</v>
+        <v>3.566163</v>
       </c>
       <c r="O10">
-        <v>0.03036366342535065</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P10">
-        <v>0.03036366342535065</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q10">
-        <v>1.977694348270084</v>
+        <v>3.801900638952</v>
       </c>
       <c r="R10">
-        <v>1.977694348270084</v>
+        <v>34.217105750568</v>
       </c>
       <c r="S10">
-        <v>0.003703233857702459</v>
+        <v>0.005202666104233592</v>
       </c>
       <c r="T10">
-        <v>0.003703233857702459</v>
+        <v>0.0082088617200164</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H11">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J11">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9047798046547</v>
+        <v>0.700844</v>
       </c>
       <c r="N11">
-        <v>10.9047798046547</v>
+        <v>2.102532</v>
       </c>
       <c r="O11">
-        <v>0.4618831187869663</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P11">
-        <v>0.4618831187869663</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q11">
-        <v>30.08410483247854</v>
+        <v>2.241517775328</v>
       </c>
       <c r="R11">
-        <v>30.08410483247854</v>
+        <v>20.173659977952</v>
       </c>
       <c r="S11">
-        <v>0.05633250440936698</v>
+        <v>0.003067378571721614</v>
       </c>
       <c r="T11">
-        <v>0.05633250440936698</v>
+        <v>0.004839766003379408</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.49161211072663</v>
+        <v>3.198312</v>
       </c>
       <c r="H12">
-        <v>2.49161211072663</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1101506869541319</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J12">
-        <v>0.1101506869541319</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.96454710372563</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N12">
-        <v>2.96454710372563</v>
+        <v>2.258587</v>
       </c>
       <c r="O12">
-        <v>0.1255664292712438</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P12">
-        <v>0.1255664292712438</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q12">
-        <v>7.386501466462335</v>
+        <v>2.407888635048</v>
       </c>
       <c r="R12">
-        <v>7.386501466462335</v>
+        <v>21.67099771543201</v>
       </c>
       <c r="S12">
-        <v>0.01383122844260491</v>
+        <v>0.003295046813160991</v>
       </c>
       <c r="T12">
-        <v>0.01383122844260491</v>
+        <v>0.005198985118074155</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.49161211072663</v>
+        <v>3.198312</v>
       </c>
       <c r="H13">
-        <v>2.49161211072663</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1101506869541319</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J13">
-        <v>0.1101506869541319</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.32523025636085</v>
+        <v>10.911117</v>
       </c>
       <c r="N13">
-        <v>8.32523025636085</v>
+        <v>21.822234</v>
       </c>
       <c r="O13">
-        <v>0.3526236553429724</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P13">
-        <v>0.3526236553429724</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q13">
-        <v>20.74324453133646</v>
+        <v>34.89715643450401</v>
       </c>
       <c r="R13">
-        <v>20.74324453133646</v>
+        <v>209.382938607024</v>
       </c>
       <c r="S13">
-        <v>0.03884173787230544</v>
+        <v>0.04775460227860611</v>
       </c>
       <c r="T13">
-        <v>0.03884173787230544</v>
+        <v>0.05023205650662642</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H14">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I14">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J14">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.69796761232365</v>
+        <v>3.152962</v>
       </c>
       <c r="N14">
-        <v>0.69796761232365</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O14">
-        <v>0.02956313317346694</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P14">
-        <v>0.02956313317346694</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q14">
-        <v>1.739064555760556</v>
+        <v>8.086148353452668</v>
       </c>
       <c r="R14">
-        <v>1.739064555760556</v>
+        <v>48.51689012071601</v>
       </c>
       <c r="S14">
-        <v>0.003256399427573867</v>
+        <v>0.01106539437703691</v>
       </c>
       <c r="T14">
-        <v>0.003256399427573867</v>
+        <v>0.01163945440007229</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H15">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I15">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J15">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.716867645186256</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N15">
-        <v>0.716867645186256</v>
+        <v>26.240334</v>
       </c>
       <c r="O15">
-        <v>0.03036366342535065</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P15">
-        <v>0.03036366342535065</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q15">
-        <v>1.786156106534156</v>
+        <v>22.43215887876734</v>
       </c>
       <c r="R15">
-        <v>1.786156106534156</v>
+        <v>201.889429908906</v>
       </c>
       <c r="S15">
-        <v>0.003344578384746422</v>
+        <v>0.03069702333817854</v>
       </c>
       <c r="T15">
-        <v>0.003344578384746422</v>
+        <v>0.04843432477709316</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H16">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I16">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J16">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>10.9047798046547</v>
+        <v>1.188721</v>
       </c>
       <c r="N16">
-        <v>10.9047798046547</v>
+        <v>3.566163</v>
       </c>
       <c r="O16">
-        <v>0.4618831187869663</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P16">
-        <v>0.4618831187869663</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q16">
-        <v>27.17048142608482</v>
+        <v>3.048617254779666</v>
       </c>
       <c r="R16">
-        <v>27.17048142608482</v>
+        <v>27.437555293017</v>
       </c>
       <c r="S16">
-        <v>0.05087674282690122</v>
+        <v>0.004171844338519044</v>
       </c>
       <c r="T16">
-        <v>0.05087674282690122</v>
+        <v>0.006582412287513295</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.45568252250658</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H17">
-        <v>2.45568252250658</v>
+        <v>7.693859</v>
       </c>
       <c r="I17">
-        <v>0.1085622901056098</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J17">
-        <v>0.1085622901056098</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.96454710372563</v>
+        <v>0.700844</v>
       </c>
       <c r="N17">
-        <v>2.96454710372563</v>
+        <v>2.102532</v>
       </c>
       <c r="O17">
-        <v>0.1255664292712438</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P17">
-        <v>0.1255664292712438</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q17">
-        <v>7.279986509766531</v>
+        <v>1.797398305665334</v>
       </c>
       <c r="R17">
-        <v>7.279986509766531</v>
+        <v>16.176584750988</v>
       </c>
       <c r="S17">
-        <v>0.0136317791220703</v>
+        <v>0.002459628519715763</v>
       </c>
       <c r="T17">
-        <v>0.0136317791220703</v>
+        <v>0.003880846857445916</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.45568252250658</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H18">
-        <v>2.45568252250658</v>
+        <v>7.693859</v>
       </c>
       <c r="I18">
-        <v>0.1085622901056098</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J18">
-        <v>0.1085622901056098</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.32523025636085</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N18">
-        <v>8.32523025636085</v>
+        <v>2.258587</v>
       </c>
       <c r="O18">
-        <v>0.3526236553429724</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P18">
-        <v>0.3526236553429724</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q18">
-        <v>20.44412243638832</v>
+        <v>1.930805546359222</v>
       </c>
       <c r="R18">
-        <v>20.44412243638832</v>
+        <v>17.377249917233</v>
       </c>
       <c r="S18">
-        <v>0.03828163156944433</v>
+        <v>0.002642188085346271</v>
       </c>
       <c r="T18">
-        <v>0.03828163156944433</v>
+        <v>0.004168892678550529</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.45568252250658</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H19">
-        <v>2.45568252250658</v>
+        <v>7.693859</v>
       </c>
       <c r="I19">
-        <v>0.1085622901056098</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J19">
-        <v>0.1085622901056098</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.69796761232365</v>
+        <v>10.911117</v>
       </c>
       <c r="N19">
-        <v>0.69796761232365</v>
+        <v>21.822234</v>
       </c>
       <c r="O19">
-        <v>0.02956313317346694</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P19">
-        <v>0.02956313317346694</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q19">
-        <v>1.713986866858836</v>
+        <v>27.982865243501</v>
       </c>
       <c r="R19">
-        <v>1.713986866858836</v>
+        <v>167.897191461006</v>
       </c>
       <c r="S19">
-        <v>0.003209441440008695</v>
+        <v>0.03829282201910197</v>
       </c>
       <c r="T19">
-        <v>0.003209441440008695</v>
+        <v>0.04027940989309529</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H20">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I20">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J20">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.716867645186256</v>
+        <v>3.152962</v>
       </c>
       <c r="N20">
-        <v>0.716867645186256</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O20">
-        <v>0.03036366342535065</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P20">
-        <v>0.03036366342535065</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q20">
-        <v>1.760399347234337</v>
+        <v>8.312011837310003</v>
       </c>
       <c r="R20">
-        <v>1.760399347234337</v>
+        <v>49.87207102386001</v>
       </c>
       <c r="S20">
-        <v>0.003296348837452011</v>
+        <v>0.01137447459854753</v>
       </c>
       <c r="T20">
-        <v>0.003296348837452011</v>
+        <v>0.01196456935048949</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H21">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I21">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J21">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.9047798046547</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N21">
-        <v>10.9047798046547</v>
+        <v>26.240334</v>
       </c>
       <c r="O21">
-        <v>0.4618831187869663</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P21">
-        <v>0.4618831187869663</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q21">
-        <v>26.77867717807327</v>
+        <v>23.05873723639001</v>
       </c>
       <c r="R21">
-        <v>26.77867717807327</v>
+        <v>207.52863512751</v>
       </c>
       <c r="S21">
-        <v>0.05014308913663446</v>
+        <v>0.03155445710418785</v>
       </c>
       <c r="T21">
-        <v>0.05014308913663446</v>
+        <v>0.04978719945292827</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.902175618163821</v>
+        <v>2.636255</v>
       </c>
       <c r="H22">
-        <v>0.902175618163821</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I22">
-        <v>0.03988392240758237</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J22">
-        <v>0.03988392240758237</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.96454710372563</v>
+        <v>1.188721</v>
       </c>
       <c r="N22">
-        <v>2.96454710372563</v>
+        <v>3.566163</v>
       </c>
       <c r="O22">
-        <v>0.1255664292712438</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P22">
-        <v>0.1255664292712438</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q22">
-        <v>2.674542115879435</v>
+        <v>3.133771679855</v>
       </c>
       <c r="R22">
-        <v>2.674542115879435</v>
+        <v>28.203945118695</v>
       </c>
       <c r="S22">
-        <v>0.005008081722051467</v>
+        <v>0.004288372907526324</v>
       </c>
       <c r="T22">
-        <v>0.005008081722051467</v>
+        <v>0.006766273194641998</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.902175618163821</v>
+        <v>2.636255</v>
       </c>
       <c r="H23">
-        <v>0.902175618163821</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I23">
-        <v>0.03988392240758237</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J23">
-        <v>0.03988392240758237</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.32523025636085</v>
+        <v>0.700844</v>
       </c>
       <c r="N23">
-        <v>8.32523025636085</v>
+        <v>2.102532</v>
       </c>
       <c r="O23">
-        <v>0.3526236553429724</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P23">
-        <v>0.3526236553429724</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q23">
-        <v>7.510819752888496</v>
+        <v>1.84760349922</v>
       </c>
       <c r="R23">
-        <v>7.510819752888496</v>
+        <v>16.62843149298</v>
       </c>
       <c r="S23">
-        <v>0.01406401450877718</v>
+        <v>0.002528331224906752</v>
       </c>
       <c r="T23">
-        <v>0.01406401450877718</v>
+        <v>0.003989247242057368</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.902175618163821</v>
+        <v>2.636255</v>
       </c>
       <c r="H24">
-        <v>0.902175618163821</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I24">
-        <v>0.03988392240758237</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J24">
-        <v>0.03988392240758237</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.69796761232365</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N24">
-        <v>0.69796761232365</v>
+        <v>2.258587</v>
       </c>
       <c r="O24">
-        <v>0.02956313317346694</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P24">
-        <v>0.02956313317346694</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q24">
-        <v>0.6296893621064151</v>
+        <v>1.984737090561667</v>
       </c>
       <c r="R24">
-        <v>0.6296893621064151</v>
+        <v>17.86263381505501</v>
       </c>
       <c r="S24">
-        <v>0.00117909370961558</v>
+        <v>0.00271599007114682</v>
       </c>
       <c r="T24">
-        <v>0.00117909370961558</v>
+        <v>0.004285338801357898</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.902175618163821</v>
+        <v>2.636255</v>
       </c>
       <c r="H25">
-        <v>0.902175618163821</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I25">
-        <v>0.03988392240758237</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J25">
-        <v>0.03988392240758237</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.716867645186256</v>
+        <v>10.911117</v>
       </c>
       <c r="N25">
-        <v>0.716867645186256</v>
+        <v>21.822234</v>
       </c>
       <c r="O25">
-        <v>0.03036366342535065</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P25">
-        <v>0.03036366342535065</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q25">
-        <v>0.6467405109375531</v>
+        <v>28.764486746835</v>
       </c>
       <c r="R25">
-        <v>0.6467405109375531</v>
+        <v>172.58692048101</v>
       </c>
       <c r="S25">
-        <v>0.001211021996066632</v>
+        <v>0.03936242274987142</v>
       </c>
       <c r="T25">
-        <v>0.001211021996066632</v>
+        <v>0.04140450028823843</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H26">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I26">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J26">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.9047798046547</v>
+        <v>3.152962</v>
       </c>
       <c r="N26">
-        <v>10.9047798046547</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O26">
-        <v>0.4618831187869663</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P26">
-        <v>0.4618831187869663</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q26">
-        <v>9.838026461204704</v>
+        <v>3.445421296234001</v>
       </c>
       <c r="R26">
-        <v>9.838026461204704</v>
+        <v>20.672527777404</v>
       </c>
       <c r="S26">
-        <v>0.01842171047107151</v>
+        <v>0.004714846150651208</v>
       </c>
       <c r="T26">
-        <v>0.01842171047107151</v>
+        <v>0.004959446984351985</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.2762389186573</v>
+        <v>1.092757</v>
       </c>
       <c r="H27">
-        <v>12.2762389186573</v>
+        <v>3.278271</v>
       </c>
       <c r="I27">
-        <v>0.5427153545616686</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J27">
-        <v>0.5427153545616686</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.96454710372563</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N27">
-        <v>2.96454710372563</v>
+        <v>26.240334</v>
       </c>
       <c r="O27">
-        <v>0.1255664292712438</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P27">
-        <v>0.1255664292712438</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q27">
-        <v>36.39348853094936</v>
+        <v>9.558102886946001</v>
       </c>
       <c r="R27">
-        <v>36.39348853094936</v>
+        <v>86.022925982514</v>
       </c>
       <c r="S27">
-        <v>0.06814682918298576</v>
+        <v>0.0130796732037686</v>
       </c>
       <c r="T27">
-        <v>0.06814682918298576</v>
+        <v>0.02063734756788836</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.2762389186573</v>
+        <v>1.092757</v>
       </c>
       <c r="H28">
-        <v>12.2762389186573</v>
+        <v>3.278271</v>
       </c>
       <c r="I28">
-        <v>0.5427153545616686</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J28">
-        <v>0.5427153545616686</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>8.32523025636085</v>
+        <v>1.188721</v>
       </c>
       <c r="N28">
-        <v>8.32523025636085</v>
+        <v>3.566163</v>
       </c>
       <c r="O28">
-        <v>0.3526236553429724</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P28">
-        <v>0.3526236553429724</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q28">
-        <v>102.2025156799204</v>
+        <v>1.298983193797</v>
       </c>
       <c r="R28">
-        <v>102.2025156799204</v>
+        <v>11.690848744173</v>
       </c>
       <c r="S28">
-        <v>0.1913742721362929</v>
+        <v>0.001777578236289639</v>
       </c>
       <c r="T28">
-        <v>0.1913742721362929</v>
+        <v>0.002804695447654876</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.2762389186573</v>
+        <v>1.092757</v>
       </c>
       <c r="H29">
-        <v>12.2762389186573</v>
+        <v>3.278271</v>
       </c>
       <c r="I29">
-        <v>0.5427153545616686</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J29">
-        <v>0.5427153545616686</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.69796761232365</v>
+        <v>0.700844</v>
       </c>
       <c r="N29">
-        <v>0.69796761232365</v>
+        <v>2.102532</v>
       </c>
       <c r="O29">
-        <v>0.02956313317346694</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P29">
-        <v>0.02956313317346694</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q29">
-        <v>8.568417166369903</v>
+        <v>0.7658521869080001</v>
       </c>
       <c r="R29">
-        <v>8.568417166369903</v>
+        <v>6.892669682171999</v>
       </c>
       <c r="S29">
-        <v>0.01604436630219194</v>
+        <v>0.001048021395629568</v>
       </c>
       <c r="T29">
-        <v>0.01604436630219194</v>
+        <v>0.001653587323111339</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.2762389186573</v>
+        <v>1.092757</v>
       </c>
       <c r="H30">
-        <v>12.2762389186573</v>
+        <v>3.278271</v>
       </c>
       <c r="I30">
-        <v>0.5427153545616686</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J30">
-        <v>0.5427153545616686</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.716867645186256</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N30">
-        <v>0.716867645186256</v>
+        <v>2.258587</v>
       </c>
       <c r="O30">
-        <v>0.03036366342535065</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P30">
-        <v>0.03036366342535065</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q30">
-        <v>8.800438485361729</v>
+        <v>0.8226955847863334</v>
       </c>
       <c r="R30">
-        <v>8.800438485361729</v>
+        <v>7.404260263077001</v>
       </c>
       <c r="S30">
-        <v>0.01647882636168035</v>
+        <v>0.001125808073261572</v>
       </c>
       <c r="T30">
-        <v>0.01647882636168035</v>
+        <v>0.001776320565558131</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.2762389186573</v>
+        <v>1.092757</v>
       </c>
       <c r="H31">
-        <v>12.2762389186573</v>
+        <v>3.278271</v>
       </c>
       <c r="I31">
-        <v>0.5427153545616686</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J31">
-        <v>0.5427153545616686</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.9047798046547</v>
+        <v>10.911117</v>
       </c>
       <c r="N31">
-        <v>10.9047798046547</v>
+        <v>21.822234</v>
       </c>
       <c r="O31">
-        <v>0.4618831187869663</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P31">
-        <v>0.4618831187869663</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q31">
-        <v>133.8696822372902</v>
+        <v>11.923199479569</v>
       </c>
       <c r="R31">
-        <v>133.8696822372902</v>
+        <v>71.539196877414</v>
       </c>
       <c r="S31">
-        <v>0.2506710605785177</v>
+        <v>0.01631616175099952</v>
       </c>
       <c r="T31">
-        <v>0.2506710605785177</v>
+        <v>0.01716262558875168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>17.4676725</v>
+      </c>
+      <c r="H32">
+        <v>34.935345</v>
+      </c>
+      <c r="I32">
+        <v>0.6084208126870634</v>
+      </c>
+      <c r="J32">
+        <v>0.5221115377948153</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.152962</v>
+      </c>
+      <c r="N32">
+        <v>6.305924000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.1238725014308239</v>
+      </c>
+      <c r="P32">
+        <v>0.1012255502275323</v>
+      </c>
+      <c r="Q32">
+        <v>55.07490762094501</v>
+      </c>
+      <c r="R32">
+        <v>220.29963048378</v>
+      </c>
+      <c r="S32">
+        <v>0.07536660799012128</v>
+      </c>
+      <c r="T32">
+        <v>0.05285102769342321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>17.4676725</v>
+      </c>
+      <c r="H33">
+        <v>34.935345</v>
+      </c>
+      <c r="I33">
+        <v>0.6084208126870634</v>
+      </c>
+      <c r="J33">
+        <v>0.5221115377948153</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>8.746778000000001</v>
+      </c>
+      <c r="N33">
+        <v>26.240334</v>
+      </c>
+      <c r="O33">
+        <v>0.3436404467672299</v>
+      </c>
+      <c r="P33">
+        <v>0.4212217348804431</v>
+      </c>
+      <c r="Q33">
+        <v>152.785853534205</v>
+      </c>
+      <c r="R33">
+        <v>916.7151212052299</v>
+      </c>
+      <c r="S33">
+        <v>0.2090779998942635</v>
+      </c>
+      <c r="T33">
+        <v>0.2199247277510281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>17.4676725</v>
+      </c>
+      <c r="H34">
+        <v>34.935345</v>
+      </c>
+      <c r="I34">
+        <v>0.6084208126870634</v>
+      </c>
+      <c r="J34">
+        <v>0.5221115377948153</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>1.188721</v>
+      </c>
+      <c r="N34">
+        <v>3.566163</v>
+      </c>
+      <c r="O34">
+        <v>0.04670206738087879</v>
+      </c>
+      <c r="P34">
+        <v>0.05724566485039578</v>
+      </c>
+      <c r="Q34">
+        <v>20.7641891218725</v>
+      </c>
+      <c r="R34">
+        <v>124.585134731235</v>
+      </c>
+      <c r="S34">
+        <v>0.02841450979004027</v>
+      </c>
+      <c r="T34">
+        <v>0.02988862210712675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>17.4676725</v>
+      </c>
+      <c r="H35">
+        <v>34.935345</v>
+      </c>
+      <c r="I35">
+        <v>0.6084208126870634</v>
+      </c>
+      <c r="J35">
+        <v>0.5221115377948153</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.700844</v>
+      </c>
+      <c r="N35">
+        <v>2.102532</v>
+      </c>
+      <c r="O35">
+        <v>0.02753452131449231</v>
+      </c>
+      <c r="P35">
+        <v>0.03375079664312381</v>
+      </c>
+      <c r="Q35">
+        <v>12.24211346559</v>
+      </c>
+      <c r="R35">
+        <v>73.45268079354</v>
+      </c>
+      <c r="S35">
+        <v>0.01675257583511268</v>
+      </c>
+      <c r="T35">
+        <v>0.01762168033714146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>17.4676725</v>
+      </c>
+      <c r="H36">
+        <v>34.935345</v>
+      </c>
+      <c r="I36">
+        <v>0.6084208126870634</v>
+      </c>
+      <c r="J36">
+        <v>0.5221115377948153</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.7528623333333334</v>
+      </c>
+      <c r="N36">
+        <v>2.258587</v>
+      </c>
+      <c r="O36">
+        <v>0.02957819994755621</v>
+      </c>
+      <c r="P36">
+        <v>0.03625586223553463</v>
+      </c>
+      <c r="Q36">
+        <v>13.1507526762525</v>
+      </c>
+      <c r="R36">
+        <v>78.90451605751501</v>
+      </c>
+      <c r="S36">
+        <v>0.01799599244991261</v>
+      </c>
+      <c r="T36">
+        <v>0.01892960398587196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>17.4676725</v>
+      </c>
+      <c r="H37">
+        <v>34.935345</v>
+      </c>
+      <c r="I37">
+        <v>0.6084208126870634</v>
+      </c>
+      <c r="J37">
+        <v>0.5221115377948153</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>10.911117</v>
+      </c>
+      <c r="N37">
+        <v>21.822234</v>
+      </c>
+      <c r="O37">
+        <v>0.4286722631590189</v>
+      </c>
+      <c r="P37">
+        <v>0.3503003911629703</v>
+      </c>
+      <c r="Q37">
+        <v>190.5918183651825</v>
+      </c>
+      <c r="R37">
+        <v>762.36727346073</v>
+      </c>
+      <c r="S37">
+        <v>0.260813126727613</v>
+      </c>
+      <c r="T37">
+        <v>0.1828958759202238</v>
       </c>
     </row>
   </sheetData>
